--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_94.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,358 +488,370 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[('0:00:56.880000', '0:01:04.440000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:32.874217', '0:00:37.657528'), ('0:00:33.698526', '0:00:40.885102')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:01:04.320000', '0:01:06.920000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2113636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[('0:00:05.880000', '0:00:11.460000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>schubert-winterreise_122</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.1282051282051282</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A:7', 'D', 'D:min', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[('0:00:12.823786', '0:00:18.895804')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:02.960000', '0:00:13.120000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.475</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -843,362 +860,320 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_213</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[(42.94, 51.08)]</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:02.580000', '0:00:05.020000'), ('0:00:00.220000', '0:00:03.440000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(18.64, 28.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.3, 43.48)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
